--- a/165306_CSMConfig_07132022.xlsx
+++ b/165306_CSMConfig_07132022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\csm\bmn165\165306\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aceshiny.bmrn.com\fr904103\current\qscsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F0FF6-D2C0-4B81-8B7F-F5974CEF7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280B792-54C0-4D1F-A625-ACE48913294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="607" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="607" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Configuration Parameter" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="134">
   <si>
     <t>Function Name</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>md, mdge3</t>
+  </si>
+  <si>
+    <t>Flag</t>
   </si>
 </sst>
 </file>
@@ -1100,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1122,7 @@
     <col min="10" max="10" width="89.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,8 +1153,11 @@
       <c r="J1" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>165306</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>(r==0 &amp;n&gt;=2)</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>165306</v>
       </c>
@@ -1208,7 +1214,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>165306</v>
       </c>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>165306</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>diff_pct&lt; -20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>165306</v>
       </c>
@@ -1291,11 +1297,14 @@
         <v>p_value&lt;0.1</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f>CONCATENATE("if ((",I3," &amp; ", I5, ") &amp; ( ", I6, " | ", I2, "  | ", I4,")) {flag= -1};")</f>
-        <v>if ((abs(diff_pct)/100*n&gt;1 &amp; diff_pct&lt; -20) &amp; ( p_value&lt;0.1 | (r==0 &amp;n&gt;=2)  | r_60&gt;=1)) {flag= -1};</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("(", I3," &amp; ", I5, ") &amp; ( ", I6, " | ", I2, "  | ", I4)</f>
+        <v>(abs(diff_pct)/100*n&gt;1 &amp; diff_pct&lt; -20) &amp; ( p_value&lt;0.1 | (r==0 &amp;n&gt;=2)  | r_60&gt;=1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>165306</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>(r==0 &amp;n&gt;=2)</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>165306</v>
       </c>
@@ -1351,11 +1360,14 @@
         <v>abs(diff_pct)/100*n&gt;1</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f>CONCATENATE("if ((",I8," &amp; ", I10, ") &amp; ( ", I11, " | ", I7, ")) {flag= -1};")</f>
-        <v>if ((abs(diff_pct)/100*n&gt;1 &amp; diff_pct&lt; -20) &amp; ( p_value&lt;0.1 | (r==0 &amp;n&gt;=2))) {flag= -1};</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I8," &amp; ", I10, ") &amp; ( ", I11, " | ", I7)</f>
+        <v>abs(diff_pct)/100*n&gt;1 &amp; diff_pct&lt; -20) &amp; ( p_value&lt;0.1 | (r==0 &amp;n&gt;=2)</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>165306</v>
       </c>
@@ -1381,11 +1393,14 @@
         <v>diff_pct&gt;20</v>
       </c>
       <c r="J9" s="10" t="str">
-        <f>CONCATENATE("if (",I8," &amp;",I9, " &amp; ", I11,") {flag= 1};")</f>
-        <v>if (abs(diff_pct)/100*n&gt;1 &amp;diff_pct&gt;20 &amp; p_value&lt;0.1) {flag= 1};</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I8," &amp;",I9, " &amp; ", I11)</f>
+        <v>abs(diff_pct)/100*n&gt;1 &amp;diff_pct&gt;20 &amp; p_value&lt;0.1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>165306</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>diff_pct&lt; -20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>165306</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>p_value&lt;0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>165306</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>site_cnt &gt;=2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>165306</v>
       </c>
@@ -1493,7 +1508,7 @@
         <v>diff_cnt &lt; -2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>165306</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>foldchange &lt;-2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>165306</v>
       </c>
@@ -1547,11 +1562,14 @@
         <v>adjusted_p_value&lt; 0.05</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f>CONCATENATE("if( ",  I15," &amp; ",  I13," &amp; ", I14, ") {flag= -1};")</f>
-        <v>if( adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5) {flag= -1};</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I15," &amp; ",  I13," &amp; ", I14)</f>
+        <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>165306</v>
       </c>
@@ -1579,7 +1597,7 @@
         <v>site_cnt &gt;=2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>165306</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>diff_cnt &lt; -2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>165306</v>
       </c>
@@ -1635,11 +1653,14 @@
         <v>diff_cnt &gt; 2</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f>CONCATENATE("if (",I16,  " &amp; ", I21," &amp; ",  I18," &amp; ", I20, ") {flag= 1};")</f>
-        <v>if (site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &gt; 2 &amp; foldchange &gt;2.5) {flag= 1};</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I16,  " &amp; ", I21," &amp; ",  I18," &amp; ", I20)</f>
+        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &gt; 2 &amp; foldchange &gt;2.5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>165306</v>
       </c>
@@ -1667,7 +1688,7 @@
         <v>foldchange &lt;-2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>165306</v>
       </c>
@@ -1695,11 +1716,14 @@
         <v>foldchange &gt;2.5</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f>CONCATENATE("if( ", I16, " &amp; ", I21," &amp; ",  I17," &amp; ", I19, ") {flag= -1};")</f>
-        <v>if( site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5) {flag= -1};</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I16, " &amp; ", I21," &amp; ",  I17," &amp; ", I19)</f>
+        <v>site_cnt &gt;=2 &amp; adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>165306</v>
       </c>
@@ -1725,7 +1749,7 @@
         <v>adjusted_p_value&lt; 0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>165306</v>
       </c>
@@ -1753,7 +1777,7 @@
         <v>n&gt;=2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>165306</v>
       </c>
@@ -1781,7 +1805,7 @@
         <v>diff_avg &gt;40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>165306</v>
       </c>
@@ -1807,11 +1831,14 @@
         <v>p_value&lt;0.05</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f>CONCATENATE("if (", I23, " &amp; ", I24, " &amp; ", I22," ) {flag = 1};")</f>
-        <v>if (diff_avg &gt;40 &amp; p_value&lt;0.05 &amp; n&gt;=2 ) {flag = 1};</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I23, " &amp; ", I24, " &amp; ", I22)</f>
+        <v>diff_avg &gt;40 &amp; p_value&lt;0.05 &amp; n&gt;=2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>165306</v>
       </c>
@@ -1837,7 +1864,7 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>165306</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>165306</v>
       </c>
@@ -1889,7 +1916,7 @@
         <v>site_value_pct &gt; 15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>165306</v>
       </c>
@@ -1915,11 +1942,14 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f>CONCATENATE("if (", I29," &amp; ", I25, " &amp; ", I26, " &amp; ", I27,   " &amp; ", I28, ") { flag= 1 };")</f>
-        <v>if (p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 15 &amp; diff_pct&gt;10) { flag= 1 };</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I29," &amp; ", I25, " &amp; ", I26, " &amp; ", I27,   " &amp; ", I28)</f>
+        <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 15 &amp; diff_pct&gt;10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>165306</v>
       </c>
@@ -1945,7 +1975,7 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>165306</v>
       </c>
@@ -1971,7 +2001,7 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>165306</v>
       </c>
@@ -1997,7 +2027,7 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>165306</v>
       </c>
@@ -2023,7 +2053,7 @@
         <v>site_value_pct &gt; 10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>165306</v>
       </c>
@@ -2049,11 +2079,14 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J33" s="10" t="str">
-        <f>CONCATENATE("if (", I34," &amp; ", I30, " &amp; ", I31, " &amp; ", I32,   " &amp; ", I33, ") { flag= 1 };")</f>
-        <v>if (p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 10 &amp; diff_pct&gt;10) { flag= 1 };</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I34," &amp; ", I30, " &amp; ", I31, " &amp; ", I32,   " &amp; ", I33)</f>
+        <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 10 &amp; diff_pct&gt;10</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>165306</v>
       </c>
@@ -2079,7 +2112,7 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>165306</v>
       </c>
@@ -2105,7 +2138,7 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>165306</v>
       </c>
@@ -2131,7 +2164,7 @@
         <v>oddsRatio &gt; 4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>165306</v>
       </c>
@@ -2157,7 +2190,7 @@
         <v>site_value_pct &gt; 33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>165306</v>
       </c>
@@ -2183,11 +2216,14 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J38" s="10" t="str">
-        <f>CONCATENATE("if (", I39," &amp; ", I35, " &amp; ", I36, " &amp; ", I37,   " &amp; ", I38, ") { flag= 1 };")</f>
-        <v>if (p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 33 &amp; diff_pct&gt;10) { flag= 1 };</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I39," &amp; ", I35, " &amp; ", I36, " &amp; ", I37,   " &amp; ", I38)</f>
+        <v>p_value &lt; 0.05 &amp; site_value_cnt &gt; 8 &amp; oddsRatio &gt; 4 &amp; site_value_pct &gt; 33 &amp; diff_pct&gt;10</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>165306</v>
       </c>
@@ -2213,7 +2249,7 @@
         <v>p_value &lt; 0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>165306</v>
       </c>
@@ -2240,7 +2276,7 @@
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>165306</v>
       </c>
@@ -2262,7 +2298,7 @@
       <c r="I41" s="5"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>165306</v>
       </c>
@@ -2288,11 +2324,14 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J42" t="str">
-        <f>CONCATENATE("if (",I40," &amp;",I42, " &amp; ", I43,") {flag= 1};")</f>
-        <v>if (abs(diff_pct)/100*n&gt;15 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05) {flag= 1};</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I40," &amp;",I42, " &amp; ", I43)</f>
+        <v>abs(diff_pct)/100*n&gt;15 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>165306</v>
       </c>
@@ -2319,7 +2358,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>165306</v>
       </c>
@@ -2346,7 +2385,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>165306</v>
       </c>
@@ -2368,7 +2407,7 @@
       <c r="I45" s="5"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>165306</v>
       </c>
@@ -2394,11 +2433,14 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J46" t="str">
-        <f>CONCATENATE("if (",I44," &amp;",I46, " &amp; ", I47,") {flag= 1};")</f>
-        <v>if (abs(diff_pct)/100*n&gt;15 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05) {flag= 1};</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f>CONCATENATE(I44," &amp;",I46, " &amp; ", I47)</f>
+        <v>abs(diff_pct)/100*n&gt;15 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>165306</v>
       </c>
@@ -2437,7 +2479,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,7 +2980,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
